--- a/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
+++ b/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -152,6 +152,17 @@
   </si>
   <si>
     <t>ヘルプトップ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GUIモジュール定義</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/guieditor/designing_modules/</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -303,14 +314,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -322,16 +335,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -631,7 +647,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -687,14 +703,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -739,14 +755,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -842,7 +858,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20">
@@ -850,7 +868,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -860,7 +878,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
@@ -872,6 +890,34 @@
       <c r="R11" s="9"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="5" customHeight="1">
       <c r="A14" s="10" t="s">

--- a/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
+++ b/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>/guieditor/designing_modules/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sitemap/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/theme/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/contents/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サイトマップ編集</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テーマ編集</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンテンツ編集</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -245,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -270,51 +303,96 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF666666"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -322,32 +400,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -641,13 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -703,14 +798,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -755,14 +850,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -805,14 +900,14 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -828,120 +923,208 @@
         <v>34</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="10">
+        <v>1</v>
+      </c>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="10">
+        <v>1</v>
+      </c>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="4">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="4"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8">
         <v>1</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="14" spans="1:20" ht="5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="17" spans="1:20" ht="5" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
+++ b/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -196,6 +196,50 @@
     <rPh sb="5" eb="7">
       <t>ヘンシュウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/intro/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パブリッシュ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/publish/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>その他の機能</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/other/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャッシュを削除する</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/other/clearcache/</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -392,7 +436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -406,8 +450,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,23 +471,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -443,6 +501,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -736,13 +798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -798,14 +860,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -850,14 +912,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -900,14 +962,14 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -929,81 +991,81 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="9"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="9">
-        <v>1</v>
-      </c>
-      <c r="T10" s="9"/>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="10">
-        <v>1</v>
-      </c>
-      <c r="T11" s="10"/>
+      <c r="S11" s="9">
+        <v>1</v>
+      </c>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="10"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10">
@@ -1019,49 +1081,51 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="4"/>
+      <c r="S13" s="10">
+        <v>1</v>
+      </c>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1071,60 +1135,176 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="5" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="8"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="18">
+        <v>1</v>
+      </c>
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="18"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18">
+        <v>1</v>
+      </c>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+    </row>
+    <row r="21" spans="1:20" ht="5" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
+++ b/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -240,6 +240,20 @@
   </si>
   <si>
     <t>/other/clearcache/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Twigエンジンを用いたGUIモジュール定義</t>
+    <rPh sb="9" eb="10">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/guieditor/designing_modules_with_tplengines/</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -436,7 +450,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -458,8 +472,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -479,11 +495,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -494,6 +511,7 @@
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -505,6 +523,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -798,13 +817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -860,14 +879,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -912,14 +931,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1167,68 +1186,66 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="8"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19">
+        <v>1</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="18"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18">
-        <v>1</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="18">
-        <v>1</v>
-      </c>
-      <c r="T17" s="18"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1239,7 +1256,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18">
@@ -1257,10 +1274,10 @@
     <row r="19" spans="1:20">
       <c r="A19" s="18"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="C19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
@@ -1269,7 +1286,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18">
@@ -1279,32 +1296,62 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="18"/>
+      <c r="S19" s="18">
+        <v>1</v>
+      </c>
       <c r="T19" s="18"/>
     </row>
-    <row r="21" spans="1:20" ht="5" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="20" spans="1:20">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+    </row>
+    <row r="22" spans="1:20" ht="5" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
+++ b/docs/help/htdocs/px-files/sitemaps/sitemap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0</t>
   </si>
@@ -254,6 +254,29 @@
   </si>
   <si>
     <t>/guieditor/designing_modules_with_tplengines/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GUI編集エンジンの種類と切り替え方法</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/guieditor/select_gui_engine/</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -450,7 +473,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -474,8 +497,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -496,11 +521,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -512,6 +538,7 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -524,6 +551,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -817,13 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -879,14 +907,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -931,14 +959,14 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1242,40 +1270,38 @@
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="18"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="18"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1286,7 +1312,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18">
@@ -1304,10 +1330,10 @@
     <row r="20" spans="1:20">
       <c r="A20" s="18"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="C20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
@@ -1316,7 +1342,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18">
@@ -1326,32 +1352,62 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="18"/>
+      <c r="S20" s="18">
+        <v>1</v>
+      </c>
       <c r="T20" s="18"/>
     </row>
-    <row r="22" spans="1:20" ht="5" customHeight="1">
-      <c r="A22" s="7" t="s">
+    <row r="21" spans="1:20">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+    </row>
+    <row r="23" spans="1:20" ht="5" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
